--- a/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9046F08C-7144-4086-BFBF-1305D03A12D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDF3318-A601-4BFA-B225-BB7D8472C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C500283A-8579-4468-8601-8C4838C69383}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{943ACDED-ADD0-4DC7-98D9-5A5484665015}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2007 (Tasa respuesta: 73,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,19 +80,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,37%</t>
+    <t>17,62%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>20,54%</t>
+    <t>21,19%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>12,17%</t>
+    <t>13,45%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>96,49%</t>
   </si>
   <si>
-    <t>82,63%</t>
+    <t>82,38%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,28 +110,28 @@
     <t>95,76%</t>
   </si>
   <si>
-    <t>79,46%</t>
+    <t>78,81%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>87,83%</t>
+    <t>86,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,13%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>4,75%</t>
@@ -140,31 +140,31 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>9,66%</t>
+    <t>9,52%</t>
   </si>
   <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
   </si>
   <si>
     <t>92,87%</t>
   </si>
   <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,34%</t>
+    <t>90,48%</t>
   </si>
   <si>
     <t>98,33%</t>
@@ -173,835 +173,835 @@
     <t>94,0%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>8,08%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>91,92%</t>
   </si>
   <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
     <t>4,28%</t>
   </si>
   <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2015 (Tasa respuesta: 75,87%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>93,24%</t>
   </si>
   <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
-    <t>91,12%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>8,52%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
   </si>
   <si>
     <t>93,38%</t>
   </si>
   <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>92,47%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
@@ -1013,76 +1013,64 @@
     <t>95,93%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
   </si>
   <si>
     <t>5,14%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>94,86%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>7,39%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,81%</t>
   </si>
   <si>
     <t>9,15%</t>
@@ -1091,19 +1079,13 @@
     <t>92,61%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>93,41%</t>
@@ -1112,145 +1094,145 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
   </si>
   <si>
     <t>92,18%</t>
   </si>
   <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>88,66%</t>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>7,06%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>8,41%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>92,94%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>91,59%</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534EF201-A018-4795-B705-1979C98A4291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B55365-0EC0-49E7-8F6D-DE41D5D954C3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2439,10 +2421,10 @@
         <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2457,13 +2439,13 @@
         <v>140382</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>200</v>
@@ -2472,13 +2454,13 @@
         <v>153231</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>407</v>
@@ -2487,13 +2469,13 @@
         <v>293613</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2543,13 @@
         <v>42151</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>48</v>
@@ -2576,13 +2558,13 @@
         <v>32961</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>111</v>
@@ -2591,13 +2573,13 @@
         <v>75112</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2594,13 @@
         <v>486399</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>696</v>
@@ -2627,13 +2609,13 @@
         <v>469282</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>1425</v>
@@ -2642,13 +2624,13 @@
         <v>955680</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2686,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A499E83E-B1A8-4DAA-A76B-1C875B508B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38487A2F-FD7B-4066-9EF5-4CC291F16629}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2742,7 +2724,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2852,10 +2834,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2864,13 +2846,13 @@
         <v>1702</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2879,13 +2861,13 @@
         <v>1702</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,7 +2885,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -2915,10 +2897,10 @@
         <v>14331</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2930,10 +2912,10 @@
         <v>30424</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>21</v>
@@ -3004,13 +2986,13 @@
         <v>8687</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -3019,13 +3001,13 @@
         <v>6749</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3034,13 +3016,13 @@
         <v>15436</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3037,13 @@
         <v>87720</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H8" s="7">
         <v>105</v>
@@ -3070,13 +3052,13 @@
         <v>74347</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M8" s="7">
         <v>231</v>
@@ -3085,7 +3067,7 @@
         <v>162067</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>148</v>
@@ -3189,13 +3171,13 @@
         <v>26919</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3192,13 @@
         <v>142313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>177</v>
@@ -3225,13 +3207,13 @@
         <v>114307</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>383</v>
@@ -3240,13 +3222,13 @@
         <v>256620</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3296,13 @@
         <v>15479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -3329,13 +3311,13 @@
         <v>15421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -3344,13 +3326,13 @@
         <v>30899</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3347,13 @@
         <v>101305</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>142</v>
@@ -3380,13 +3362,13 @@
         <v>89430</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>298</v>
@@ -3395,13 +3377,13 @@
         <v>190735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3451,13 @@
         <v>12978</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3484,13 +3466,13 @@
         <v>9942</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -3499,13 +3481,13 @@
         <v>22920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3520,13 +3502,13 @@
         <v>141963</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>178</v>
@@ -3535,13 +3517,13 @@
         <v>136060</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>373</v>
@@ -3550,13 +3532,13 @@
         <v>278023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3606,13 @@
         <v>49386</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>68</v>
@@ -3639,13 +3621,13 @@
         <v>48489</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>136</v>
@@ -3654,13 +3636,13 @@
         <v>97876</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3657,13 @@
         <v>489395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>619</v>
@@ -3690,13 +3672,13 @@
         <v>428476</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>1320</v>
@@ -3705,13 +3687,13 @@
         <v>917870</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,7 +3749,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +3770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D277D7-E569-4DBC-8455-ED570987F510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F6DBD4-2684-4752-AE1E-1B836D592FB1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3805,7 +3787,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3912,13 +3894,13 @@
         <v>786</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3927,13 +3909,13 @@
         <v>2232</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3942,13 +3924,13 @@
         <v>3018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,10 +3945,10 @@
         <v>16892</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -3978,10 +3960,10 @@
         <v>12698</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -3993,13 +3975,13 @@
         <v>29590</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4049,13 @@
         <v>8208</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -4082,13 +4064,13 @@
         <v>7284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>237</v>
+        <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4097,13 +4079,13 @@
         <v>15492</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4100,13 @@
         <v>78788</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>100</v>
@@ -4133,13 +4115,13 @@
         <v>67871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="M8" s="7">
         <v>207</v>
@@ -4395,10 +4377,10 @@
         <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4407,13 +4389,13 @@
         <v>21867</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4410,13 @@
         <v>123283</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>175</v>
@@ -4443,13 +4425,13 @@
         <v>104248</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -4458,13 +4440,13 @@
         <v>227532</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4514,13 @@
         <v>9535</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4547,13 +4529,13 @@
         <v>11237</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -4562,13 +4544,13 @@
         <v>20772</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4565,13 @@
         <v>148028</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -4598,13 +4580,13 @@
         <v>154884</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -4613,13 +4595,13 @@
         <v>302912</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,7 +4732,7 @@
         <v>722</v>
       </c>
       <c r="I20" s="7">
-        <v>479962</v>
+        <v>479961</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>315</v>
@@ -4801,7 +4783,7 @@
         <v>789</v>
       </c>
       <c r="I21" s="7">
-        <v>524685</v>
+        <v>524684</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -4830,7 +4812,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4851,7 +4833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD86F3C5-D960-4CDF-9775-0AC44C42CFFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EE3611-F398-4673-B563-0CE40BAD4E73}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4978,10 +4960,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4993,10 +4975,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5008,7 +4990,7 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>322</v>
@@ -5029,7 +5011,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -5044,7 +5026,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -5130,13 +5112,13 @@
         <v>5914</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5145,13 +5127,13 @@
         <v>5191</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -5160,13 +5142,13 @@
         <v>11106</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,13 +5163,13 @@
         <v>108682</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>160</v>
@@ -5196,13 +5178,13 @@
         <v>96230</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>302</v>
@@ -5211,13 +5193,13 @@
         <v>204911</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,13 +5267,13 @@
         <v>18451</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>206</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5300,13 +5282,13 @@
         <v>10502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -5315,13 +5297,13 @@
         <v>28952</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,13 +5318,13 @@
         <v>231364</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>350</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>351</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>259</v>
@@ -5351,13 +5333,13 @@
         <v>179040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>580</v>
@@ -5366,13 +5348,13 @@
         <v>410405</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5422,13 @@
         <v>17220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>92</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5455,13 +5437,13 @@
         <v>10107</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -5470,13 +5452,13 @@
         <v>27327</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5473,13 @@
         <v>154671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>210</v>
@@ -5506,13 +5488,13 @@
         <v>158199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
@@ -5521,13 +5503,13 @@
         <v>312870</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5577,13 @@
         <v>16006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5610,13 +5592,13 @@
         <v>13384</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>43</v>
@@ -5625,13 +5607,13 @@
         <v>29390</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5628,13 @@
         <v>159010</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -5661,13 +5643,13 @@
         <v>157805</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>434</v>
@@ -5676,13 +5658,13 @@
         <v>316815</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5732,13 @@
         <v>57591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>62</v>
@@ -5765,13 +5747,13 @@
         <v>39184</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -5780,13 +5762,13 @@
         <v>96775</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>393</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,28 +5783,28 @@
         <v>666424</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="H20" s="7">
         <v>874</v>
       </c>
       <c r="I20" s="7">
-        <v>607591</v>
+        <v>607590</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M20" s="7">
         <v>1770</v>
@@ -5831,13 +5813,13 @@
         <v>1274014</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>403</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5846,7 @@
         <v>936</v>
       </c>
       <c r="I21" s="7">
-        <v>646775</v>
+        <v>646774</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>26</v>
@@ -5893,7 +5875,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Hacinamiento_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFDF3318-A601-4BFA-B225-BB7D8472C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34653A44-3DEA-4FDD-BE67-CA3519E8E7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{943ACDED-ADD0-4DC7-98D9-5A5484665015}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{EA0062DE-CBDB-4CB3-BCAB-7EC82A54D48A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2007 (Tasa respuesta: 73,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,298 +68,259 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
   </si>
   <si>
     <t>11,98%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>88,02%</t>
   </si>
   <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>88,16%</t>
   </si>
   <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>7,97%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>7,29%</t>
@@ -368,31 +329,31 @@
     <t>5,97%</t>
   </si>
   <si>
-    <t>8,71%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>92,03%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>91,29%</t>
+    <t>91,38%</t>
   </si>
   <si>
     <t>94,03%</t>
@@ -404,835 +365,742 @@
     <t>Hogares según si tienen dos o más personas por habitación en 2012 (Tasa respuesta: 69,37%)</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>18,92%</t>
   </si>
   <si>
     <t>13,94%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>86,75%</t>
   </si>
   <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
+    <t>81,08%</t>
   </si>
   <si>
     <t>86,06%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>8,38%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
   </si>
   <si>
     <t>7,62%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>91,62%</t>
   </si>
   <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>92,38%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>Hogares según si tienen dos o más personas por habitación en 2016 (Tasa respuesta: 75,87%)</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen dos o más personas por habitación en 2023 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1512,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B55365-0EC0-49E7-8F6D-DE41D5D954C3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA683A7F-0E83-4B71-B608-E9AF4CA437EC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1762,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>832</v>
+        <v>4904</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1777,85 +1645,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>806</v>
+        <v>7577</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>1638</v>
+        <v>12481</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>145</v>
+      </c>
+      <c r="D5" s="7">
+        <v>100305</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7">
+        <v>160</v>
+      </c>
+      <c r="I5" s="7">
+        <v>110712</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>305</v>
+      </c>
+      <c r="N5" s="7">
+        <v>211018</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D5" s="7">
-        <v>22876</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18203</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="7">
-        <v>53</v>
-      </c>
-      <c r="N5" s="7">
-        <v>41079</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,153 +1732,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D6" s="7">
-        <v>23708</v>
+        <v>105209</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I6" s="7">
-        <v>19009</v>
+        <v>118289</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="N6" s="7">
-        <v>42717</v>
+        <v>223499</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>6745</v>
+        <v>8364</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I7" s="7">
-        <v>4098</v>
+        <v>11379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>10843</v>
+        <v>19743</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="D8" s="7">
-        <v>87836</v>
+        <v>115948</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="I8" s="7">
-        <v>82103</v>
+        <v>129363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>252</v>
+        <v>386</v>
       </c>
       <c r="N8" s="7">
-        <v>169939</v>
+        <v>245310</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,153 +1887,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="D9" s="7">
-        <v>94581</v>
+        <v>124312</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="I9" s="7">
-        <v>86201</v>
+        <v>140742</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>269</v>
+        <v>416</v>
       </c>
       <c r="N9" s="7">
-        <v>180782</v>
+        <v>265053</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>11379</v>
+        <v>7588</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>8364</v>
+        <v>6631</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>19743</v>
+        <v>14219</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="D11" s="7">
-        <v>129363</v>
+        <v>99797</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="I11" s="7">
-        <v>115948</v>
+        <v>105942</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>386</v>
+        <v>327</v>
       </c>
       <c r="N11" s="7">
-        <v>245310</v>
+        <v>205739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,153 +2042,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D12" s="7">
-        <v>140742</v>
+        <v>107385</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="I12" s="7">
-        <v>124312</v>
+        <v>112573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="N12" s="7">
-        <v>265053</v>
+        <v>219958</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>6631</v>
+        <v>12105</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>7588</v>
+        <v>16564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>14219</v>
+        <v>28669</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>105942</v>
+        <v>153231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="I14" s="7">
-        <v>99798</v>
+        <v>140382</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="N14" s="7">
-        <v>205739</v>
+        <v>293613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,153 +2197,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D15" s="7">
-        <v>112573</v>
+        <v>165336</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7">
-        <v>107386</v>
+        <v>156946</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>349</v>
+        <v>447</v>
       </c>
       <c r="N15" s="7">
-        <v>219958</v>
+        <v>322282</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>16564</v>
+        <v>32961</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>12105</v>
+        <v>42151</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="N16" s="7">
-        <v>28669</v>
+        <v>75112</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>207</v>
+        <v>696</v>
       </c>
       <c r="D17" s="7">
-        <v>140382</v>
+        <v>469282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>200</v>
+        <v>729</v>
       </c>
       <c r="I17" s="7">
-        <v>153231</v>
+        <v>486398</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>407</v>
+        <v>1425</v>
       </c>
       <c r="N17" s="7">
-        <v>293613</v>
+        <v>955680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,217 +2352,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>231</v>
+        <v>744</v>
       </c>
       <c r="D18" s="7">
-        <v>156946</v>
+        <v>502243</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>216</v>
+        <v>792</v>
       </c>
       <c r="I18" s="7">
-        <v>165336</v>
+        <v>528549</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>447</v>
+        <v>1536</v>
       </c>
       <c r="N18" s="7">
-        <v>322282</v>
+        <v>1030792</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>63</v>
-      </c>
-      <c r="D19" s="7">
-        <v>42151</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="7">
-        <v>48</v>
-      </c>
-      <c r="I19" s="7">
-        <v>32961</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="7">
-        <v>111</v>
-      </c>
-      <c r="N19" s="7">
-        <v>75112</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>729</v>
-      </c>
-      <c r="D20" s="7">
-        <v>486399</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H20" s="7">
-        <v>696</v>
-      </c>
-      <c r="I20" s="7">
-        <v>469282</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1425</v>
-      </c>
-      <c r="N20" s="7">
-        <v>955680</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>792</v>
-      </c>
-      <c r="D21" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>744</v>
-      </c>
-      <c r="I21" s="7">
-        <v>502243</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1536</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1030792</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2707,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38487A2F-FD7B-4066-9EF5-4CC291F16629}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9566584-C295-496E-9901-0DD9B374364E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2724,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2825,100 +2537,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8451</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
       <c r="I4" s="7">
-        <v>1702</v>
+        <v>8687</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>1702</v>
+        <v>17138</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="D5" s="7">
-        <v>16093</v>
+        <v>88678</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="I5" s="7">
-        <v>14331</v>
+        <v>103814</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>35</v>
+        <v>266</v>
       </c>
       <c r="N5" s="7">
-        <v>30424</v>
+        <v>192491</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,153 +2639,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>16093</v>
+        <v>97129</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="I6" s="7">
-        <v>16033</v>
+        <v>112501</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="N6" s="7">
-        <v>32126</v>
+        <v>209629</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>8687</v>
+        <v>14676</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12243</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="7">
+        <v>39</v>
+      </c>
+      <c r="N7" s="7">
+        <v>26919</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="H7" s="7">
-        <v>9</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6749</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="7">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7">
-        <v>15436</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="D8" s="7">
-        <v>87720</v>
+        <v>114307</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
+        <v>206</v>
+      </c>
+      <c r="I8" s="7">
+        <v>142313</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M8" s="7">
+        <v>383</v>
+      </c>
+      <c r="N8" s="7">
+        <v>256620</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="H8" s="7">
-        <v>105</v>
-      </c>
-      <c r="I8" s="7">
-        <v>74347</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="M8" s="7">
-        <v>231</v>
-      </c>
-      <c r="N8" s="7">
-        <v>162067</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,153 +2794,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D9" s="7">
-        <v>96407</v>
+        <v>128983</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I9" s="7">
-        <v>81096</v>
+        <v>154556</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="N9" s="7">
-        <v>177503</v>
+        <v>283539</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>12243</v>
+        <v>15421</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>14676</v>
+        <v>15479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>26919</v>
+        <v>30899</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7">
-        <v>142313</v>
+        <v>89430</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="7">
+        <v>156</v>
+      </c>
+      <c r="I11" s="7">
+        <v>101305</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="7">
+        <v>298</v>
+      </c>
+      <c r="N11" s="7">
+        <v>190735</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="7">
-        <v>177</v>
-      </c>
-      <c r="I11" s="7">
-        <v>114307</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M11" s="7">
-        <v>383</v>
-      </c>
-      <c r="N11" s="7">
-        <v>256620</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,153 +2949,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D12" s="7">
-        <v>154556</v>
+        <v>104851</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>128983</v>
+        <v>116784</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="N12" s="7">
-        <v>283539</v>
+        <v>221634</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>15479</v>
+        <v>9942</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
+        <v>17</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12978</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="7">
+        <v>30</v>
+      </c>
+      <c r="N13" s="7">
+        <v>22920</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15421</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M13" s="7">
-        <v>44</v>
-      </c>
-      <c r="N13" s="7">
-        <v>30899</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>101305</v>
+        <v>136060</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
+        <v>195</v>
+      </c>
+      <c r="I14" s="7">
+        <v>141963</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="7">
+        <v>373</v>
+      </c>
+      <c r="N14" s="7">
+        <v>278023</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H14" s="7">
-        <v>142</v>
-      </c>
-      <c r="I14" s="7">
-        <v>89430</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M14" s="7">
-        <v>298</v>
-      </c>
-      <c r="N14" s="7">
-        <v>190735</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,153 +3104,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D15" s="7">
-        <v>116784</v>
+        <v>146002</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="I15" s="7">
-        <v>104851</v>
+        <v>154941</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="N15" s="7">
-        <v>221634</v>
+        <v>300943</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D16" s="7">
-        <v>12978</v>
+        <v>48489</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>9942</v>
+        <v>49386</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c r="N16" s="7">
-        <v>22920</v>
+        <v>97876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>195</v>
+        <v>619</v>
       </c>
       <c r="D17" s="7">
-        <v>141963</v>
+        <v>428476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
-        <v>178</v>
+        <v>701</v>
       </c>
       <c r="I17" s="7">
-        <v>136060</v>
+        <v>489395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>373</v>
+        <v>1320</v>
       </c>
       <c r="N17" s="7">
-        <v>278023</v>
+        <v>917870</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,217 +3259,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>212</v>
+        <v>687</v>
       </c>
       <c r="D18" s="7">
-        <v>154941</v>
+        <v>476965</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>191</v>
+        <v>769</v>
       </c>
       <c r="I18" s="7">
-        <v>146002</v>
+        <v>538781</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>403</v>
+        <v>1456</v>
       </c>
       <c r="N18" s="7">
-        <v>300943</v>
+        <v>1015746</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>68</v>
-      </c>
-      <c r="D19" s="7">
-        <v>49386</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>68</v>
-      </c>
-      <c r="I19" s="7">
-        <v>48489</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>136</v>
-      </c>
-      <c r="N19" s="7">
-        <v>97876</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>701</v>
-      </c>
-      <c r="D20" s="7">
-        <v>489395</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>619</v>
-      </c>
-      <c r="I20" s="7">
-        <v>428476</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1320</v>
-      </c>
-      <c r="N20" s="7">
-        <v>917870</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>769</v>
-      </c>
-      <c r="D21" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>687</v>
-      </c>
-      <c r="I21" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3770,8 +3326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F6DBD4-2684-4752-AE1E-1B836D592FB1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50D8EE1-BAEE-4980-BF35-80EECFDFFA02}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3787,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,100 +3444,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>786</v>
+        <v>9516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
       <c r="I4" s="7">
-        <v>2232</v>
+        <v>8994</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>3018</v>
+        <v>18510</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="D5" s="7">
-        <v>16892</v>
+        <v>80569</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7">
-        <v>12698</v>
+        <v>95680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>240</v>
       </c>
       <c r="N5" s="7">
-        <v>29590</v>
+        <v>176249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,153 +3546,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D6" s="7">
-        <v>17678</v>
+        <v>90085</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="I6" s="7">
-        <v>14930</v>
+        <v>104674</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="N6" s="7">
-        <v>32608</v>
+        <v>194759</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>8208</v>
+        <v>11666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>237</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>7284</v>
+        <v>9653</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N7" s="7">
-        <v>15492</v>
+        <v>21318</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>78788</v>
+        <v>140261</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>248</v>
       </c>
       <c r="I8" s="7">
-        <v>67871</v>
+        <v>165650</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>207</v>
+        <v>474</v>
       </c>
       <c r="N8" s="7">
-        <v>146659</v>
+        <v>305912</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,153 +3701,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="D9" s="7">
-        <v>86996</v>
+        <v>151927</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="I9" s="7">
-        <v>75155</v>
+        <v>175303</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="N9" s="7">
-        <v>162151</v>
+        <v>327230</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>9653</v>
+        <v>12304</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>11666</v>
+        <v>9564</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>21318</v>
+        <v>21867</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>165650</v>
+        <v>104248</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="I11" s="7">
-        <v>140261</v>
+        <v>123283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="N11" s="7">
-        <v>305912</v>
+        <v>227532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,153 +3856,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="D12" s="7">
-        <v>175303</v>
+        <v>116552</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="I12" s="7">
-        <v>151927</v>
+        <v>132847</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="N12" s="7">
-        <v>327230</v>
+        <v>249399</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>9564</v>
+        <v>11237</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>12304</v>
+        <v>9535</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>21867</v>
+        <v>20772</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>123283</v>
+        <v>154884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="I14" s="7">
-        <v>104248</v>
+        <v>148028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
-        <v>360</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>227532</v>
+        <v>302912</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,153 +4011,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D15" s="7">
-        <v>132847</v>
+        <v>166121</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>116552</v>
+        <v>157563</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="N15" s="7">
-        <v>249399</v>
+        <v>323684</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>9535</v>
+        <v>44723</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I16" s="7">
-        <v>11237</v>
+        <v>37745</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="N16" s="7">
-        <v>20772</v>
+        <v>82468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>211</v>
+        <v>722</v>
       </c>
       <c r="D17" s="7">
-        <v>148028</v>
+        <v>479962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>208</v>
+        <v>771</v>
       </c>
       <c r="I17" s="7">
-        <v>154884</v>
+        <v>532642</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="M17" s="7">
-        <v>419</v>
+        <v>1493</v>
       </c>
       <c r="N17" s="7">
-        <v>302912</v>
+        <v>1012604</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>302</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,217 +4166,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>789</v>
       </c>
       <c r="D18" s="7">
-        <v>157563</v>
+        <v>524685</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>824</v>
       </c>
       <c r="I18" s="7">
-        <v>166121</v>
+        <v>570387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>448</v>
+        <v>1613</v>
       </c>
       <c r="N18" s="7">
-        <v>323684</v>
+        <v>1095072</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>53</v>
-      </c>
-      <c r="D19" s="7">
-        <v>37745</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="7">
-        <v>67</v>
-      </c>
-      <c r="I19" s="7">
-        <v>44723</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M19" s="7">
-        <v>120</v>
-      </c>
-      <c r="N19" s="7">
-        <v>82468</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>771</v>
-      </c>
-      <c r="D20" s="7">
-        <v>532642</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="7">
-        <v>722</v>
-      </c>
-      <c r="I20" s="7">
-        <v>479961</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1493</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1012604</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>824</v>
-      </c>
-      <c r="D21" s="7">
-        <v>570387</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>789</v>
-      </c>
-      <c r="I21" s="7">
-        <v>524684</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1613</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1095072</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4833,8 +4233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EE3611-F398-4673-B563-0CE40BAD4E73}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1C6507-72CC-4B25-96EC-D23AE2348119}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4850,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4951,100 +4351,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>5288</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6294</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>189</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>11583</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>121</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>12698</v>
+        <v>109883</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>16315</v>
+        <v>134118</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>198</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>348</v>
       </c>
       <c r="N5" s="7">
-        <v>29013</v>
+        <v>244000</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,153 +4453,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>115171</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16315</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="N6" s="7">
-        <v>29013</v>
+        <v>255583</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>5914</v>
+        <v>10807</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>5191</v>
+        <v>19845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N7" s="7">
-        <v>11106</v>
+        <v>30651</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>259</v>
       </c>
       <c r="D8" s="7">
-        <v>108682</v>
+        <v>177105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
-        <v>160</v>
+        <v>321</v>
       </c>
       <c r="I8" s="7">
-        <v>96230</v>
+        <v>234809</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
-        <v>302</v>
+        <v>580</v>
       </c>
       <c r="N8" s="7">
-        <v>204911</v>
+        <v>411915</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,153 +4608,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>187912</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="I9" s="7">
-        <v>101421</v>
+        <v>254654</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>619</v>
       </c>
       <c r="N9" s="7">
-        <v>216017</v>
+        <v>442566</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>18451</v>
+        <v>10232</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>307</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>10502</v>
+        <v>18870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>310</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>28952</v>
+        <v>29102</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>210</v>
+      </c>
+      <c r="D11" s="7">
+        <v>179747</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="7">
+        <v>198</v>
+      </c>
+      <c r="I11" s="7">
+        <v>165113</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="M11" s="7">
+        <v>408</v>
+      </c>
+      <c r="N11" s="7">
+        <v>344860</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D11" s="7">
-        <v>231364</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H11" s="7">
-        <v>259</v>
-      </c>
-      <c r="I11" s="7">
-        <v>179040</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="M11" s="7">
-        <v>580</v>
-      </c>
-      <c r="N11" s="7">
-        <v>410405</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,153 +4763,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>249815</v>
+        <v>189979</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>189542</v>
+        <v>183983</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>619</v>
+        <v>449</v>
       </c>
       <c r="N12" s="7">
-        <v>439357</v>
+        <v>373962</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>17220</v>
+        <v>13110</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>167</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>10107</v>
+        <v>17078</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>27327</v>
+        <v>30188</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>154671</v>
+        <v>154117</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="I14" s="7">
-        <v>158199</v>
+        <v>164160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="M14" s="7">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="N14" s="7">
-        <v>312870</v>
+        <v>318278</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>337</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,153 +4918,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="D15" s="7">
-        <v>171891</v>
+        <v>167227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>168306</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>340197</v>
+        <v>348466</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>16006</v>
+        <v>39438</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="7">
+        <v>78</v>
+      </c>
+      <c r="I16" s="7">
+        <v>62086</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="H16" s="7">
-        <v>21</v>
-      </c>
-      <c r="I16" s="7">
-        <v>13384</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="M16" s="7">
-        <v>43</v>
+        <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>29390</v>
+        <v>101524</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>216</v>
+        <v>874</v>
       </c>
       <c r="D17" s="7">
-        <v>159010</v>
+        <v>620851</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="7">
+        <v>896</v>
+      </c>
+      <c r="I17" s="7">
+        <v>698202</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H17" s="7">
-        <v>218</v>
-      </c>
-      <c r="I17" s="7">
-        <v>157805</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
-        <v>434</v>
+        <v>1770</v>
       </c>
       <c r="N17" s="7">
-        <v>316815</v>
+        <v>1319053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,217 +5073,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>936</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>660289</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>239</v>
+        <v>974</v>
       </c>
       <c r="I18" s="7">
-        <v>171189</v>
+        <v>760288</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>477</v>
+        <v>1910</v>
       </c>
       <c r="N18" s="7">
-        <v>346205</v>
+        <v>1420577</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>78</v>
-      </c>
-      <c r="D19" s="7">
-        <v>57591</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="H19" s="7">
-        <v>62</v>
-      </c>
-      <c r="I19" s="7">
-        <v>39184</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="M19" s="7">
-        <v>140</v>
-      </c>
-      <c r="N19" s="7">
-        <v>96775</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>896</v>
-      </c>
-      <c r="D20" s="7">
-        <v>666424</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="H20" s="7">
-        <v>874</v>
-      </c>
-      <c r="I20" s="7">
-        <v>607590</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1770</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1274014</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>974</v>
-      </c>
-      <c r="D21" s="7">
-        <v>724015</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>936</v>
-      </c>
-      <c r="I21" s="7">
-        <v>646774</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1910</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1370789</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
